--- a/log_history/Y3_B2526_Physiology_scanner1760338948330_81c4a8e074784811fd9df90d8eec357d9939d95543deacf8de3d815b330fe161.xlsx
+++ b/log_history/Y3_B2526_Physiology_scanner1760338948330_81c4a8e074784811fd9df90d8eec357d9939d95543deacf8de3d815b330fe161.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Physiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
